--- a/FileInput/Controller.xlsx
+++ b/FileInput/Controller.xlsx
@@ -2,23 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Live_8oclock\Hybrid_FrameWork\FileInput\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syed Shahed Hussain\Desktop\FILES_Projects_RangaReddySir_From30Sep\Hybrid_FrameWork\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8295"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
     <sheet name="ApplicationLogin" sheetId="2" r:id="rId2"/>
     <sheet name="StocckItems" sheetId="3" r:id="rId3"/>
     <sheet name="Suppliers" sheetId="4" r:id="rId4"/>
-    <sheet name="Cusstomers" sheetId="5" r:id="rId5"/>
+    <sheet name="Customers" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="142">
   <si>
     <t>TCID</t>
   </si>
@@ -63,122 +63,404 @@
     <t>Suppliers</t>
   </si>
   <si>
-    <t>Cusstomers</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ObjectType</t>
+  </si>
+  <si>
+    <t>LocatorType</t>
+  </si>
+  <si>
+    <t>LocatorValue</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>Launch Browser</t>
+  </si>
+  <si>
+    <t>startBrowser</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Launch Url</t>
+  </si>
+  <si>
+    <t>openUrl</t>
+  </si>
+  <si>
+    <t>Wait for username</t>
+  </si>
+  <si>
+    <t>waitForElement</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>Enter username</t>
+  </si>
+  <si>
+    <t>typeAction</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>//input[@id='username']</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>Click login button</t>
+  </si>
+  <si>
+    <t>clickAction</t>
+  </si>
+  <si>
+    <t>btnsubmit</t>
+  </si>
+  <si>
+    <t>Wait for logout link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),' Logout')])[2]</t>
+  </si>
+  <si>
+    <t>validate page title</t>
+  </si>
+  <si>
+    <t>validateTitle</t>
+  </si>
+  <si>
+    <t>Dashboard « Stock Accounting</t>
+  </si>
+  <si>
+    <t>Click logout</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>closeBrowser</t>
+  </si>
+  <si>
+    <t>Wait for stock item link</t>
+  </si>
+  <si>
+    <t>Click Stock items link</t>
+  </si>
+  <si>
+    <t>//a[text()='Stock Items ']</t>
+  </si>
+  <si>
+    <t>Wait for Add Icon</t>
+  </si>
+  <si>
+    <t>Click Add icon</t>
+  </si>
+  <si>
+    <t>(//span[@data-caption='Add'])[1]</t>
+  </si>
+  <si>
+    <t>Wait for Category Listbox</t>
+  </si>
+  <si>
+    <t>Select item in Category</t>
+  </si>
+  <si>
+    <t>dropDownAction</t>
+  </si>
+  <si>
+    <t>Seelct item in Supplier Number</t>
+  </si>
+  <si>
+    <t>x_Category</t>
+  </si>
+  <si>
+    <t>//select[@id='x_Category']</t>
+  </si>
+  <si>
+    <t>x_Supplier_Number</t>
+  </si>
+  <si>
+    <t>Capture Stock number</t>
+  </si>
+  <si>
+    <t>captureStock</t>
+  </si>
+  <si>
+    <t>x_Stock_Number</t>
+  </si>
+  <si>
+    <t>Enter Stcok name</t>
+  </si>
+  <si>
+    <t>Puzzels</t>
+  </si>
+  <si>
+    <t>x_Stock_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select item in Unit Of Measurement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter Purchasing Price </t>
+  </si>
+  <si>
+    <t>Enter Selling Price</t>
+  </si>
+  <si>
+    <t>Enter notes</t>
+  </si>
+  <si>
+    <t>Selling Puzzles</t>
+  </si>
+  <si>
+    <t>x_Purchasing_Price</t>
+  </si>
+  <si>
+    <t>x_Unit_Of_Measurement</t>
+  </si>
+  <si>
+    <t>x_Selling_Price</t>
+  </si>
+  <si>
+    <t>x_Notes</t>
+  </si>
+  <si>
+    <t>Click add button</t>
+  </si>
+  <si>
+    <t>btnAction</t>
+  </si>
+  <si>
+    <t>Verify Stock Number</t>
+  </si>
+  <si>
+    <t>stockTable</t>
+  </si>
+  <si>
+    <t>Wait for Confirm ok button</t>
+  </si>
+  <si>
+    <t>Click Confirm ok button</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='OK!']</t>
+  </si>
+  <si>
+    <t>Wait for alert ok</t>
+  </si>
+  <si>
+    <t>Click Alert ok</t>
+  </si>
+  <si>
+    <t>(//button[starts-with(text(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>Wait for Supplier link</t>
+  </si>
+  <si>
+    <t>Click Supplier link</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),'Suppliers')])[2]</t>
+  </si>
+  <si>
+    <t>Wait for supplier number</t>
+  </si>
+  <si>
+    <t>capture supplier number</t>
+  </si>
+  <si>
+    <t>capturesup</t>
+  </si>
+  <si>
+    <t>Enter supplier name</t>
+  </si>
+  <si>
+    <t>Enter address</t>
+  </si>
+  <si>
+    <t>Enter City</t>
+  </si>
+  <si>
+    <t>Enter Contact person</t>
+  </si>
+  <si>
+    <t>Enter Country</t>
+  </si>
+  <si>
+    <t>Enter phone number</t>
+  </si>
+  <si>
+    <t>Enter Email</t>
+  </si>
+  <si>
+    <t>Enter Mobile number</t>
+  </si>
+  <si>
+    <t>Enter Notes</t>
+  </si>
+  <si>
+    <t>Click Add button</t>
+  </si>
+  <si>
+    <t>Verify Supplier number</t>
+  </si>
+  <si>
+    <t>suppliertable</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Supplier_Name']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Address']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_City']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Country']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Contact_Person']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Phone_Number']</t>
+  </si>
+  <si>
+    <t>//input[@id='x__Email']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Mobile_Number']</t>
+  </si>
+  <si>
+    <t>//textarea[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Akhilesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameerpet,201,flat,beside satyam </t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>QedgeTech</t>
+  </si>
+  <si>
+    <t>6547896547</t>
+  </si>
+  <si>
+    <t>Test@gmail.com</t>
+  </si>
+  <si>
+    <t>6214789545</t>
+  </si>
+  <si>
+    <t>Iam Supplying lg goods</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Wait for Customer number</t>
+  </si>
+  <si>
+    <t>capture Customer number</t>
+  </si>
+  <si>
+    <t>capturecus</t>
+  </si>
+  <si>
+    <t>customertable</t>
+  </si>
+  <si>
+    <t>Wait for Customer link</t>
+  </si>
+  <si>
+    <t>Click Customer link</t>
+  </si>
+  <si>
+    <t>Enter Customer name</t>
+  </si>
+  <si>
+    <t>Verify Customer number</t>
+  </si>
+  <si>
+    <t>(//a[contains(text(),'Customers')])[2]</t>
+  </si>
+  <si>
+    <t>x_Customer_Number</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Customer_Name']</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Notes']</t>
+  </si>
+  <si>
+    <t>Ranguandsita</t>
+  </si>
+  <si>
+    <t>madanapalli</t>
+  </si>
+  <si>
+    <t>Anantapur</t>
+  </si>
+  <si>
+    <t>Qedgetech</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>65547789541</t>
+  </si>
+  <si>
+    <t>3214569832</t>
+  </si>
+  <si>
+    <t>Iam Customer</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>LocatorType</t>
-  </si>
-  <si>
-    <t>LocatorValue</t>
-  </si>
-  <si>
-    <t>TestData</t>
-  </si>
-  <si>
-    <t>Launch Browser</t>
-  </si>
-  <si>
-    <t>startBrowser</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Launch Url</t>
-  </si>
-  <si>
-    <t>openUrl</t>
-  </si>
-  <si>
-    <t>Wait for username</t>
-  </si>
-  <si>
-    <t>waitForElement</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>Enter username</t>
-  </si>
-  <si>
-    <t>typeAction</t>
-  </si>
-  <si>
-    <t>xpath</t>
-  </si>
-  <si>
-    <t>//input[@id='username']</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>Enter password</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>master</t>
-  </si>
-  <si>
-    <t>Click login button</t>
-  </si>
-  <si>
-    <t>clickAction</t>
-  </si>
-  <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
-    <t>Wait for logout link</t>
-  </si>
-  <si>
-    <t>(//a[starts-with(text(),' Logout')])[2]</t>
-  </si>
-  <si>
-    <t>validate page title</t>
-  </si>
-  <si>
-    <t>validateTitle</t>
-  </si>
-  <si>
-    <t>Dashboard « Stock Accounting</t>
-  </si>
-  <si>
-    <t>Click logout</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>closeBrowser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +496,14 @@
       <b/>
       <sz val="22"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,17 +547,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,18 +844,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.75" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="1">
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -581,11 +877,11 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="1">
+    <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -593,11 +889,11 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="1">
+    <row r="4" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -605,19 +901,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="1">
+    <row r="5" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>141</v>
       </c>
       <c r="D5" s="2"/>
     </row>
@@ -631,216 +927,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A7" s="4" t="s">
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A8" s="4" t="s">
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4">
-        <v>10</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.8">
-      <c r="A11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -851,41 +1147,564 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5">
+        <v>300000</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="5">
+        <v>500000</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4">
+        <v>15</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -894,85 +1713,1209 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E28" activeCellId="1" sqref="E26 E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.58984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="4">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E14" activeCellId="4" sqref="E4 E8 E10 E12 E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>15</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="4">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="4">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>